--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/DailyTav.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/DailyTav.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0EE8F1-7216-4D1B-8ED8-A30BCFEA9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -58,9 +57,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>CreateEmpNo</t>
-  </si>
-  <si>
     <t>建檔人員</t>
   </si>
   <si>
@@ -90,10 +86,6 @@
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -209,14 +201,50 @@
   <si>
     <t>Y:此筆為該戶號+額度的最新一筆資料
 N:此筆為歷史資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNoAcDateRange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND AcDate &gt;= ,AND AcDate &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務科目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAV,TLD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,6 +308,13 @@
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="細明體"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -355,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,11 +450,14 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -510,23 +548,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -562,23 +583,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -754,11 +758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -778,10 +782,10 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -791,10 +795,10 @@
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -806,10 +810,10 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -828,7 +832,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="11"/>
@@ -839,7 +843,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="11"/>
@@ -850,7 +854,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="11"/>
@@ -861,25 +865,25 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -887,13 +891,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -906,13 +910,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -925,13 +929,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -944,20 +948,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -965,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="1">
         <v>16</v>
@@ -986,20 +990,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1007,34 +1011,36 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
@@ -1043,15 +1049,17 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
@@ -1060,26 +1068,34 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
@@ -1568,6 +1584,15 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1586,12 +1611,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1614,6 +1639,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/DailyTav.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/DailyTav.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FAC749-A188-4D85-BB3A-E02A95340DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -236,14 +237,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TAV,TLD</t>
+    <t>TAV,TLD,T10,T11,T12,T13</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -445,19 +446,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,6 +549,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -583,6 +601,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,11 +793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -777,10 +812,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
@@ -792,8 +827,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
@@ -805,10 +840,10 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="9" t="s">
         <v>35</v>
       </c>
@@ -820,10 +855,10 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="4"/>
@@ -831,10 +866,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="4"/>
@@ -842,10 +877,10 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="4"/>
@@ -853,10 +888,10 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
       <c r="E7" s="4"/>
@@ -1022,7 +1057,7 @@
       <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1611,7 +1646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/DailyTav.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/DailyTav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FAC749-A188-4D85-BB3A-E02A95340DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A815674-0138-4109-9CFB-5A56EAF4071B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate,CustNo,FacmNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -184,19 +180,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LatestFlag</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最新記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -229,15 +217,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TAV,TLD,T10,T11,T12,T13</t>
+    <t>TAV,TAM,TSL,TLD,T10,T11,T12,T13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode,AcDate,CustNo,FacmNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -454,6 +442,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,17 +785,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.21875" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="66.5546875" style="10" bestFit="1" customWidth="1"/>
@@ -845,7 +836,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="9" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>21</v>
@@ -926,35 +917,37 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="21" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -964,102 +957,100 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1084,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -1619,15 +1610,6 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1651,7 +1633,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1676,13 +1658,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/DailyTav.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/DailyTav.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A815674-0138-4109-9CFB-5A56EAF4071B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B98AE4-6BF5-4438-9C95-563B4C299C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Table</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -227,6 +224,9 @@
   <si>
     <t>AcctCode,AcDate,CustNo,FacmNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -437,14 +437,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -465,9 +465,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -505,9 +505,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,26 +540,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,26 +575,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -788,7 +754,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -803,53 +769,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="20"/>
+      <c r="A3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="21"/>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="20"/>
+      <c r="A4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="21"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="4"/>
@@ -857,10 +823,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="20"/>
+      <c r="A5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="4"/>
@@ -868,10 +834,10 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="20"/>
+      <c r="A6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="4"/>
@@ -879,10 +845,10 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="20"/>
+      <c r="A7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="21"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
       <c r="E7" s="4"/>
@@ -891,25 +857,25 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -917,20 +883,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="21" t="s">
-        <v>53</v>
+      <c r="G9" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -938,13 +904,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -957,13 +923,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E11" s="1">
         <v>7</v>
@@ -976,13 +942,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -995,20 +961,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1016,13 +982,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1">
         <v>16</v>
@@ -1037,20 +1003,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1058,13 +1024,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1075,10 +1041,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -1094,13 +1060,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1114,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -1658,13 +1624,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
